--- a/Windows/Busquedas/Barriers/Odonata/data/02_Suplementary_Tables.xlsx
+++ b/Windows/Busquedas/Barriers/Odonata/data/02_Suplementary_Tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\GitHub\Interespecific_hybrids\Windows\Busquedas\Barriers\Odonata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\GitHub\Interespecific_hybrids\Windows\Busquedas\Barriers\Odonata\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="329">
   <si>
     <t>Genera</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Hybrid-lab</t>
   </si>
   <si>
-    <t>Aehsna</t>
-  </si>
-  <si>
     <t>affinis</t>
   </si>
   <si>
@@ -70,12 +67,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>canadiensis</t>
-  </si>
-  <si>
-    <t>subartica</t>
-  </si>
-  <si>
     <t>subarctica</t>
   </si>
   <si>
@@ -100,9 +91,6 @@
     <t>mixta</t>
   </si>
   <si>
-    <t xml:space="preserve">Agrion  </t>
-  </si>
-  <si>
     <t xml:space="preserve">puella </t>
   </si>
   <si>
@@ -130,18 +118,12 @@
     <t xml:space="preserve">nigrofasciatus </t>
   </si>
   <si>
-    <t>julious</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>nigrofasciatus nigrofasciatus</t>
   </si>
   <si>
-    <t>julios</t>
-  </si>
-  <si>
     <t>nigrofasciatus</t>
   </si>
   <si>
@@ -166,9 +148,6 @@
     <t>Boyeria</t>
   </si>
   <si>
-    <t>grafiama</t>
-  </si>
-  <si>
     <t>vinosa</t>
   </si>
   <si>
@@ -205,12 +184,6 @@
     <t>parvidens</t>
   </si>
   <si>
-    <t>Cercion</t>
-  </si>
-  <si>
-    <t>sexlineatum</t>
-  </si>
-  <si>
     <t>plagiosum</t>
   </si>
   <si>
@@ -274,9 +247,6 @@
     <t>basidens</t>
   </si>
   <si>
-    <t>praevare</t>
-  </si>
-  <si>
     <t>vernale</t>
   </si>
   <si>
@@ -301,9 +271,6 @@
     <t>signatum</t>
   </si>
   <si>
-    <t>sygnatum</t>
-  </si>
-  <si>
     <t>praevarum</t>
   </si>
   <si>
@@ -337,9 +304,6 @@
     <t xml:space="preserve"> graslinellus </t>
   </si>
   <si>
-    <t xml:space="preserve"> sordidus </t>
-  </si>
-  <si>
     <t>crassus</t>
   </si>
   <si>
@@ -514,9 +478,6 @@
     <t xml:space="preserve">quadrimaculata </t>
   </si>
   <si>
-    <t>Melagrion</t>
-  </si>
-  <si>
     <t>eudytum</t>
   </si>
   <si>
@@ -565,9 +526,6 @@
     <t>irene</t>
   </si>
   <si>
-    <t>Onychogommphus</t>
-  </si>
-  <si>
     <t>forcipatus unguiculatus</t>
   </si>
   <si>
@@ -586,9 +544,6 @@
     <t>severus</t>
   </si>
   <si>
-    <t>occidentalis</t>
-  </si>
-  <si>
     <t>Orthetrum</t>
   </si>
   <si>
@@ -652,9 +607,6 @@
     <t>croceolum</t>
   </si>
   <si>
-    <t>unifiorme</t>
-  </si>
-  <si>
     <t>danae</t>
   </si>
   <si>
@@ -670,9 +622,6 @@
     <t>depressiusculum</t>
   </si>
   <si>
-    <t>fonscolombei</t>
-  </si>
-  <si>
     <t>eroticum eroticum</t>
   </si>
   <si>
@@ -745,36 +694,21 @@
     <t>Aeshna</t>
   </si>
   <si>
-    <t>Enallagama</t>
-  </si>
-  <si>
     <t>sedula</t>
   </si>
   <si>
-    <t>basidensis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cordulia </t>
   </si>
   <si>
     <t>aenea</t>
   </si>
   <si>
-    <t>Ephiteca</t>
-  </si>
-  <si>
     <t>bimaculata</t>
   </si>
   <si>
     <t>flavomaculata</t>
   </si>
   <si>
-    <t>Shurtlefii</t>
-  </si>
-  <si>
-    <t>Leucorrinia</t>
-  </si>
-  <si>
     <t>glaciallis</t>
   </si>
   <si>
@@ -793,9 +727,6 @@
     <t xml:space="preserve">Diplacodes  </t>
   </si>
   <si>
-    <t>lefebvrei</t>
-  </si>
-  <si>
     <t>arteriosa</t>
   </si>
   <si>
@@ -841,9 +772,6 @@
     <t>salva</t>
   </si>
   <si>
-    <t>rupisulensis</t>
-  </si>
-  <si>
     <t>armatus</t>
   </si>
   <si>
@@ -883,9 +811,6 @@
     <t>pallipes</t>
   </si>
   <si>
-    <t>tramea</t>
-  </si>
-  <si>
     <t>carolina</t>
   </si>
   <si>
@@ -895,9 +820,6 @@
     <t>eponina</t>
   </si>
   <si>
-    <t>Phyrrhosoma</t>
-  </si>
-  <si>
     <t>lunulatum</t>
   </si>
   <si>
@@ -931,18 +853,12 @@
     <t>boltonii</t>
   </si>
   <si>
-    <t>Brachytrom</t>
-  </si>
-  <si>
     <t>pratense</t>
   </si>
   <si>
     <t>quadrimaculata</t>
   </si>
   <si>
-    <t>nynphula</t>
-  </si>
-  <si>
     <t>ornatum</t>
   </si>
   <si>
@@ -985,9 +901,6 @@
     <t>glauca</t>
   </si>
   <si>
-    <t>allocnemis</t>
-  </si>
-  <si>
     <t>leucosticta</t>
   </si>
   <si>
@@ -997,18 +910,12 @@
     <t>Dryas</t>
   </si>
   <si>
-    <t>Haeterina</t>
-  </si>
-  <si>
     <t>americana</t>
   </si>
   <si>
     <t>Sp.</t>
   </si>
   <si>
-    <t>Cenagrionidae</t>
-  </si>
-  <si>
     <t>Hetaerina</t>
   </si>
   <si>
@@ -1018,33 +925,21 @@
     <t>peregrinus</t>
   </si>
   <si>
-    <t xml:space="preserve">cercion </t>
-  </si>
-  <si>
     <t>hieroglyhicum</t>
   </si>
   <si>
     <t>erratica</t>
   </si>
   <si>
-    <t xml:space="preserve">australi </t>
-  </si>
-  <si>
     <t>tenellum</t>
   </si>
   <si>
-    <t>Erythorma</t>
-  </si>
-  <si>
     <t>Erythromma</t>
   </si>
   <si>
     <t>viridulum</t>
   </si>
   <si>
-    <t>Leucorrihinia</t>
-  </si>
-  <si>
     <t>brunneum</t>
   </si>
   <si>
@@ -1058,6 +953,66 @@
   </si>
   <si>
     <t>curtisii</t>
+  </si>
+  <si>
+    <t>canadensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coenagrion  </t>
+  </si>
+  <si>
+    <t>Allocnemis</t>
+  </si>
+  <si>
+    <t>grafiana</t>
+  </si>
+  <si>
+    <t>Brachytron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cercion </t>
+  </si>
+  <si>
+    <t>Paracercion</t>
+  </si>
+  <si>
+    <t>melanotum</t>
+  </si>
+  <si>
+    <t>shurtleffii</t>
+  </si>
+  <si>
+    <t>lefebvrii</t>
+  </si>
+  <si>
+    <t>Phanogomphus</t>
+  </si>
+  <si>
+    <t>Davidius</t>
+  </si>
+  <si>
+    <t>Stylurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lividus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">australis </t>
+  </si>
+  <si>
+    <t>Megalagrion</t>
+  </si>
+  <si>
+    <t>occidentis</t>
+  </si>
+  <si>
+    <t>fonscolombii</t>
+  </si>
+  <si>
+    <t>uniforme</t>
+  </si>
+  <si>
+    <t>Tramea</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1284,11 +1239,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1430,6 +1405,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1711,17 +1692,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K167"/>
+  <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E159" sqref="E159"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1756,21 +1737,21 @@
     </row>
     <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -1779,21 +1760,21 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>14</v>
+        <v>309</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -1802,21 +1783,21 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>14</v>
+        <v>309</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -1825,16 +1806,16 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1842,28 +1823,28 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -1871,21 +1852,21 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1894,22 +1875,22 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>309</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1917,21 +1898,21 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -1940,25 +1921,25 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="E10" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -1967,19 +1948,19 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1990,16 +1971,16 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>24</v>
+        <v>310</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2007,22 +1988,22 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -2030,27 +2011,27 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -2059,22 +2040,22 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -2082,66 +2063,66 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" s="25"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K17" s="25"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -2149,26 +2130,26 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -2178,44 +2159,44 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -2224,21 +2205,21 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>46</v>
+        <v>312</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -2247,45 +2228,45 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -2293,22 +2274,22 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -2316,16 +2297,16 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -2333,22 +2314,22 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>48</v>
+        <v>310</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -2356,47 +2337,47 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -2408,16 +2389,16 @@
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>48</v>
+        <v>218</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -2425,27 +2406,27 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>59</v>
+        <v>315</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>60</v>
+        <v>316</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -2454,41 +2435,41 @@
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -2496,22 +2477,22 @@
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -2519,22 +2500,22 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -2542,22 +2523,22 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -2565,22 +2546,22 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -2588,22 +2569,22 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -2611,27 +2592,27 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -2640,21 +2621,21 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -2663,23 +2644,23 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
@@ -2688,21 +2669,21 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
@@ -2711,21 +2692,21 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
@@ -2734,21 +2715,21 @@
     </row>
     <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -2757,21 +2738,21 @@
     </row>
     <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
@@ -2780,16 +2761,16 @@
     </row>
     <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
@@ -2797,52 +2778,52 @@
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
       <c r="J46" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K46" s="16"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B47" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>80</v>
-      </c>
       <c r="D47" s="15" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K47" s="16"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -2851,20 +2832,20 @@
     </row>
     <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -2874,16 +2855,16 @@
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -2891,22 +2872,22 @@
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -2914,22 +2895,22 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -2937,27 +2918,27 @@
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
@@ -2966,21 +2947,21 @@
     </row>
     <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -2989,21 +2970,21 @@
     </row>
     <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
@@ -3012,21 +2993,21 @@
     </row>
     <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
@@ -3035,21 +3016,21 @@
     </row>
     <row r="57" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -3058,21 +3039,21 @@
     </row>
     <row r="58" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -3081,16 +3062,16 @@
     </row>
     <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -3098,22 +3079,22 @@
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K59" s="5"/>
     </row>
     <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>95</v>
+        <v>319</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -3121,22 +3102,22 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K60" s="5"/>
     </row>
     <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -3144,187 +3125,187 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K61" s="5"/>
     </row>
     <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>100</v>
+        <v>319</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
+      <c r="G62" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="J62" s="5"/>
       <c r="K62" s="5"/>
     </row>
     <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
     </row>
     <row r="64" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
-      <c r="H65" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>235</v>
-      </c>
-      <c r="B66" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
+      <c r="C66" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>235</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K67" s="10"/>
     </row>
     <row r="68" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
+      <c r="J68" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="K68" s="5"/>
     </row>
     <row r="69" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
-      <c r="G69" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="10"/>
@@ -3332,198 +3313,196 @@
     </row>
     <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
-      <c r="G70" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
-      <c r="J70" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>235</v>
-      </c>
-      <c r="B71" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K71" s="5"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K71" s="16"/>
     </row>
     <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>235</v>
-      </c>
-      <c r="B72" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C72" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
+      <c r="D72" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
     </row>
     <row r="73" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>235</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10" t="s">
-        <v>13</v>
+        <v>218</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>235</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K74" s="16"/>
+        <v>218</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K74" s="5"/>
     </row>
     <row r="75" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>235</v>
-      </c>
-      <c r="B75" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C75" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="76" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>235</v>
-      </c>
-      <c r="B76" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="D76" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
     </row>
     <row r="77" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
-      <c r="J77" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B78" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>122</v>
-      </c>
       <c r="D78" s="9" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
@@ -3532,21 +3511,21 @@
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
       <c r="K78" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B79" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
@@ -3554,281 +3533,283 @@
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
+      <c r="K79" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="80" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
+      <c r="F80" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
-      <c r="K80" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="K80" s="5"/>
     </row>
     <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>235</v>
-      </c>
-      <c r="B81" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
     </row>
     <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
+      <c r="G82" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
+      <c r="I82" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J82" s="10"/>
-      <c r="K82" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="K82" s="10"/>
     </row>
     <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>235</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E83" s="5"/>
-      <c r="F83" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
     </row>
     <row r="84" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>235</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
     </row>
     <row r="85" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>235</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
+        <v>218</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
     </row>
     <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>235</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
+        <v>218</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
     </row>
     <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>235</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="16"/>
+        <v>218</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
     </row>
     <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>235</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D88" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
+        <v>218</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
     </row>
     <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>235</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E90" s="28"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="25"/>
     </row>
     <row r="91" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="F91" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
@@ -3836,68 +3817,68 @@
     </row>
     <row r="92" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G92" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>235</v>
-      </c>
-      <c r="B93" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="C93" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D93" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E93" s="28"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="25"/>
+        <v>218</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E94" s="5"/>
-      <c r="F94" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
@@ -3905,21 +3886,21 @@
     </row>
     <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
@@ -3928,21 +3909,21 @@
     </row>
     <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
@@ -3951,47 +3932,45 @@
     </row>
     <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>235</v>
-      </c>
-      <c r="B97" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C97" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
+      <c r="D97" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
     </row>
     <row r="98" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B98" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C98" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="D98" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E98" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F98" s="10"/>
-      <c r="G98" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="G98" s="10"/>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
       <c r="J98" s="10"/>
@@ -3999,44 +3978,44 @@
     </row>
     <row r="99" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>235</v>
-      </c>
-      <c r="B99" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
     </row>
     <row r="100" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
@@ -4045,68 +4024,72 @@
     </row>
     <row r="101" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>132</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
-      <c r="G101" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
+      <c r="J101" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="K101" s="5"/>
     </row>
     <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>235</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D102" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E102" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
+      <c r="C102" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E103" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
+        <v>133</v>
+      </c>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="H103" s="10"/>
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
@@ -4114,163 +4097,163 @@
     </row>
     <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>235</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10"/>
+        <v>218</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
     </row>
     <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
-      <c r="G105" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B106" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
+      <c r="H106" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="I106" s="5"/>
       <c r="J106" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K106" s="5"/>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>13</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E107" s="18"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
-      <c r="J107" s="10"/>
+      <c r="J107" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="K107" s="10"/>
     </row>
     <row r="108" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E108" s="10"/>
-      <c r="F108" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="I108" s="10"/>
-      <c r="J108" s="10"/>
+      <c r="J108" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="K108" s="10"/>
     </row>
     <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G109" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
@@ -4279,22 +4262,22 @@
     </row>
     <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
@@ -4302,244 +4285,242 @@
     </row>
     <row r="112" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I112" s="5"/>
-      <c r="J112" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="J112" s="5"/>
       <c r="K112" s="5"/>
     </row>
     <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>235</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E113" s="18"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K113" s="10"/>
+        <v>218</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K113" s="5"/>
     </row>
     <row r="114" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>235</v>
-      </c>
-      <c r="B114" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C114" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K114" s="10"/>
+      <c r="D114" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K114" s="5"/>
     </row>
     <row r="115" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>152</v>
+        <v>324</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
-      <c r="G115" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G115" s="5"/>
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
-      <c r="J115" s="5"/>
+      <c r="J115" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="K115" s="5"/>
     </row>
     <row r="116" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>152</v>
+        <v>324</v>
       </c>
       <c r="C116" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
-      <c r="G116" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G116" s="5"/>
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
+      <c r="J116" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="K116" s="5"/>
     </row>
     <row r="117" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>152</v>
+        <v>324</v>
       </c>
       <c r="C117" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
-      <c r="H117" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="H117" s="5"/>
       <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
+      <c r="J117" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="K117" s="5"/>
     </row>
     <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
-      <c r="H118" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="H118" s="5"/>
       <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
+      <c r="J118" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="K118" s="5"/>
     </row>
     <row r="119" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>235</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C119" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D119" s="6" t="s">
+      <c r="C119" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K119" s="5"/>
+      <c r="D119" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="10"/>
     </row>
     <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>235</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C120" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C120" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D120" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K120" s="5"/>
+      <c r="D120" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E120" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
     </row>
     <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>162</v>
+        <v>305</v>
       </c>
       <c r="C121" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D121" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
+      <c r="G121" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
-      <c r="J121" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="J121" s="5"/>
       <c r="K121" s="5"/>
     </row>
     <row r="122" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>169</v>
@@ -4553,237 +4534,235 @@
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K122" s="5"/>
     </row>
     <row r="123" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>171</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
+      <c r="H123" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="I123" s="5"/>
-      <c r="J123" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="J123" s="5"/>
       <c r="K123" s="5"/>
     </row>
     <row r="124" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B124" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="D124" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D124" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E124" s="5"/>
+      <c r="E124" s="19"/>
       <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
+      <c r="G124" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
-      <c r="J124" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="J124" s="5"/>
       <c r="K124" s="5"/>
     </row>
     <row r="125" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>235</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="10"/>
-      <c r="K125" s="10"/>
+        <v>218</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E125" s="19"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
     </row>
     <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>235</v>
-      </c>
-      <c r="B126" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C126" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D126" s="9" t="s">
+      <c r="D126" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E126" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F126" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="10"/>
-      <c r="K126" s="10"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
     </row>
     <row r="127" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B127" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="D127" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
-      <c r="G127" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G127" s="5"/>
       <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
+      <c r="I127" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
     </row>
     <row r="128" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B128" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="D128" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
+      <c r="G128" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
-      <c r="J128" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="J128" s="5"/>
       <c r="K128" s="5"/>
     </row>
     <row r="129" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>185</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G129" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" s="5"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
     </row>
     <row r="130" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B130" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D130" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C130" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="E130" s="19"/>
+      <c r="E130" s="5"/>
       <c r="F130" s="5"/>
-      <c r="G130" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
+      <c r="J130" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="K130" s="5"/>
     </row>
     <row r="131" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E131" s="19"/>
+        <v>138</v>
+      </c>
+      <c r="E131" s="5"/>
       <c r="F131" s="5"/>
-      <c r="G131" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
-      <c r="J131" s="5"/>
+      <c r="J131" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="K131" s="5"/>
     </row>
     <row r="132" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E132" s="5"/>
-      <c r="F132" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
@@ -4791,44 +4770,44 @@
     </row>
     <row r="133" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>195</v>
+        <v>327</v>
       </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
-      <c r="I133" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="K133" s="5"/>
     </row>
     <row r="134" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
@@ -4837,62 +4816,62 @@
     </row>
     <row r="135" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
-      <c r="G135" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G135" s="5"/>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
+      <c r="J135" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="K135" s="5"/>
     </row>
     <row r="136" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>202</v>
+        <v>326</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
+      <c r="G136" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
-      <c r="J136" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="J136" s="5"/>
       <c r="K136" s="5"/>
     </row>
     <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
@@ -4900,45 +4879,45 @@
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K137" s="5"/>
     </row>
     <row r="138" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
-      <c r="G138" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
+      <c r="J138" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="K138" s="5"/>
     </row>
     <row r="139" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
@@ -4946,27 +4925,27 @@
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K139" s="5"/>
     </row>
     <row r="140" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
@@ -4975,137 +4954,143 @@
     </row>
     <row r="141" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E141" s="5"/>
+        <v>202</v>
+      </c>
+      <c r="E141" s="19"/>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K141" s="5"/>
+      <c r="H141" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I141" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J141" s="5"/>
+      <c r="K141" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="142" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
-      <c r="G142" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H142" s="5"/>
+      <c r="G142" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
     </row>
     <row r="143" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
+      <c r="H143" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="I143" s="5"/>
-      <c r="J143" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="J143" s="5"/>
       <c r="K143" s="5"/>
     </row>
     <row r="144" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
+      <c r="H144" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="I144" s="5"/>
-      <c r="J144" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="J144" s="5"/>
       <c r="K144" s="5"/>
     </row>
     <row r="145" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B145" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C145" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>215</v>
-      </c>
       <c r="D145" s="6" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
+      <c r="H145" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="I145" s="5"/>
-      <c r="J145" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="J145" s="5"/>
       <c r="K145" s="5"/>
     </row>
     <row r="146" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="F146" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" s="5"/>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
@@ -5113,51 +5098,45 @@
     </row>
     <row r="147" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E147" s="19"/>
+        <v>193</v>
+      </c>
+      <c r="E147" s="5"/>
       <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I147" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G147" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
       <c r="J147" s="5"/>
-      <c r="K147" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="K147" s="5"/>
     </row>
     <row r="148" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
-      <c r="G148" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G148" s="5"/>
       <c r="H148" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
@@ -5165,91 +5144,93 @@
     </row>
     <row r="149" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E149" s="5"/>
+        <v>198</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="F149" s="5"/>
       <c r="G149" s="5"/>
-      <c r="H149" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
     </row>
     <row r="150" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G150" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" s="5"/>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
     </row>
     <row r="151" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E151" s="5"/>
+        <v>207</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
-      <c r="H151" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
     </row>
     <row r="152" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E152" s="5"/>
-      <c r="F152" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" s="5"/>
+        <v>212</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152" s="5"/>
+      <c r="G152" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
@@ -5257,21 +5238,21 @@
     </row>
     <row r="153" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
       <c r="G153" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
@@ -5280,308 +5261,168 @@
     </row>
     <row r="154" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>235</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I154" s="5"/>
-      <c r="J154" s="5"/>
-      <c r="K154" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I154" s="10"/>
+      <c r="J154" s="10"/>
+      <c r="K154" s="10"/>
     </row>
     <row r="155" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>235</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E155" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5"/>
-      <c r="K155" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="10"/>
+      <c r="K155" s="10"/>
     </row>
     <row r="156" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>235</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5"/>
-      <c r="K156" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D156" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16"/>
+      <c r="G156" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H156" s="16"/>
+      <c r="I156" s="16"/>
+      <c r="J156" s="16"/>
+      <c r="K156" s="16"/>
     </row>
     <row r="157" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>235</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E157" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5"/>
-      <c r="J157" s="5"/>
-      <c r="K157" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C157" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D157" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E157" s="16"/>
+      <c r="F157" s="16"/>
+      <c r="G157" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H157" s="16"/>
+      <c r="I157" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J157" s="16"/>
+      <c r="K157" s="16"/>
     </row>
     <row r="158" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E158" s="12" t="s">
-        <v>13</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="E158" s="5"/>
       <c r="F158" s="5"/>
-      <c r="G158" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G158" s="5"/>
       <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
+      <c r="I158" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
     </row>
     <row r="159" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B159" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C159" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C159" s="6" t="s">
-        <v>210</v>
-      </c>
       <c r="D159" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E159" s="5"/>
+        <v>198</v>
+      </c>
+      <c r="E159" s="19"/>
       <c r="F159" s="5"/>
-      <c r="G159" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="G159" s="5"/>
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
-      <c r="K159" s="5"/>
+      <c r="K159" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="160" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>235</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D160" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
-      <c r="H160" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I160" s="10"/>
-      <c r="J160" s="10"/>
-      <c r="K160" s="10"/>
-    </row>
-    <row r="161" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>235</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D161" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H161" s="10"/>
-      <c r="I161" s="10"/>
-      <c r="J161" s="10"/>
-      <c r="K161" s="10"/>
-    </row>
-    <row r="162" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>235</v>
-      </c>
-      <c r="B162" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="C162" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="D162" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="E162" s="16"/>
-      <c r="F162" s="16"/>
-      <c r="G162" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H162" s="16"/>
-      <c r="I162" s="16"/>
-      <c r="J162" s="16"/>
-      <c r="K162" s="16"/>
-    </row>
-    <row r="163" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>235</v>
-      </c>
-      <c r="B163" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="C163" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="D163" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E163" s="16"/>
-      <c r="F163" s="16"/>
-      <c r="G163" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H163" s="16"/>
-      <c r="I163" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J163" s="16"/>
-      <c r="K163" s="16"/>
-    </row>
-    <row r="164" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>235</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J164" s="5"/>
-      <c r="K164" s="5"/>
-    </row>
-    <row r="165" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>235</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D165" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B160" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C160" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="E165" s="19"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="5"/>
-      <c r="J165" s="5"/>
-      <c r="K165" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>235</v>
-      </c>
-      <c r="B166" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="C166" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="D166" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="E166" s="22"/>
-      <c r="F166" s="22"/>
-      <c r="G166" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H166" s="22"/>
-      <c r="I166" s="22"/>
-      <c r="J166" s="22"/>
-      <c r="K166" s="22"/>
-    </row>
-    <row r="167" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D160" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="E160" s="22"/>
+      <c r="F160" s="22"/>
+      <c r="G160" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H160" s="22"/>
+      <c r="I160" s="22"/>
+      <c r="J160" s="22"/>
+      <c r="K160" s="22"/>
+    </row>
+    <row r="161" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5590,10 +5431,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5603,25 +5444,25 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="E1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="H1" s="37" t="s">
         <v>5</v>
@@ -5641,25 +5482,25 @@
     </row>
     <row r="2" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
       <c r="I2" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
@@ -5667,23 +5508,23 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>239</v>
+        <v>62</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -5693,24 +5534,24 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>239</v>
+        <v>62</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -5719,27 +5560,27 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>239</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -5747,25 +5588,25 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>244</v>
+        <v>82</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -5773,27 +5614,27 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -5801,22 +5642,22 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>247</v>
+        <v>317</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>248</v>
+        <v>130</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -5827,23 +5668,23 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -5853,24 +5694,24 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -5879,22 +5720,22 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>244</v>
+        <v>82</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -5905,24 +5746,24 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>100</v>
+        <v>321</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -5931,24 +5772,24 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -5957,22 +5798,22 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -5983,22 +5824,22 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -6009,24 +5850,24 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
@@ -6035,27 +5876,27 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -6063,24 +5904,24 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -6089,23 +5930,23 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -6115,23 +5956,23 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -6141,23 +5982,23 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -6167,24 +6008,24 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -6193,24 +6034,24 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>271</v>
+        <v>169</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -6219,24 +6060,24 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>100</v>
+        <v>321</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -6245,29 +6086,29 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
@@ -6275,24 +6116,24 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
@@ -6301,24 +6142,24 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
@@ -6327,25 +6168,25 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
@@ -6353,25 +6194,25 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>239</v>
+        <v>62</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
@@ -6379,24 +6220,24 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
@@ -6405,24 +6246,24 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
@@ -6431,25 +6272,25 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
@@ -6457,24 +6298,24 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>239</v>
+        <v>62</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
@@ -6483,25 +6324,25 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
@@ -6509,25 +6350,25 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>239</v>
+        <v>62</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
@@ -6535,24 +6376,24 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
@@ -6561,24 +6402,24 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
@@ -6587,23 +6428,23 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>297</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>129</v>
+        <v>271</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
@@ -6613,23 +6454,23 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
@@ -6639,24 +6480,24 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
@@ -6665,24 +6506,24 @@
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
@@ -6691,24 +6532,24 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
@@ -6717,24 +6558,24 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>100</v>
+        <v>319</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
@@ -6743,24 +6584,24 @@
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
@@ -6769,24 +6610,24 @@
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
@@ -6795,23 +6636,23 @@
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
@@ -6821,24 +6662,24 @@
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
@@ -6847,24 +6688,24 @@
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
@@ -6873,22 +6714,22 @@
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
@@ -6899,31 +6740,188 @@
     </row>
     <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="35"/>
       <c r="H50" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I50" s="35"/>
       <c r="J50" s="35"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
     </row>
-    <row r="51" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>271</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>271</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="5"/>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>271</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>271</v>
+      </c>
+      <c r="B54" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>271</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>271</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6931,10 +6929,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6944,25 +6942,25 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="E1" s="41" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="H1" s="41" t="s">
         <v>5</v>
@@ -6982,24 +6980,24 @@
     </row>
     <row r="2" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -7008,24 +7006,24 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -7034,25 +7032,25 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -7060,24 +7058,24 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -7086,24 +7084,24 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -7112,24 +7110,24 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -7138,19 +7136,19 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -7162,24 +7160,24 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -7188,25 +7186,25 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -7214,24 +7212,24 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="E11" s="44" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -7240,25 +7238,25 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -7266,24 +7264,24 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -7292,24 +7290,24 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -7318,24 +7316,24 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -7344,22 +7342,22 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -7370,25 +7368,25 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>326</v>
+        <v>33</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>13</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="H17" s="45" t="s">
+        <v>12</v>
+      </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -7396,25 +7394,25 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="C18" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="B18" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>324</v>
-      </c>
       <c r="D18" s="43" t="s">
-        <v>39</v>
+        <v>314</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="11"/>
+        <v>299</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>12</v>
+      </c>
       <c r="G18" s="11"/>
-      <c r="H18" s="45" t="s">
-        <v>13</v>
-      </c>
+      <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -7422,76 +7420,76 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>328</v>
+        <v>100</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>329</v>
+        <v>111</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>330</v>
+        <v>41</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>13</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="45" t="s">
+        <v>12</v>
+      </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="45" t="s">
-        <v>13</v>
-      </c>
+      <c r="H20" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
@@ -7500,76 +7498,76 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="45" t="s">
+        <v>12</v>
+      </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>123</v>
+        <v>300</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>204</v>
+        <v>121</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="45" t="s">
-        <v>13</v>
-      </c>
+      <c r="H23" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>112</v>
+        <v>292</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -7578,24 +7576,24 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>333</v>
+        <v>121</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
@@ -7604,24 +7602,24 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>71</v>
+        <v>280</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
@@ -7630,24 +7628,24 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>308</v>
+        <v>119</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>334</v>
+        <v>256</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
@@ -7656,24 +7654,24 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>335</v>
+        <v>62</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>280</v>
+        <v>69</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -7682,24 +7680,24 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>298</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>321</v>
+        <v>272</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>71</v>
+        <v>302</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
@@ -7708,24 +7706,24 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>321</v>
+        <v>130</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>336</v>
+        <v>191</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>337</v>
+        <v>193</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
@@ -7734,25 +7732,25 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>338</v>
+        <v>172</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>147</v>
+        <v>304</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>206</v>
+        <v>305</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="45" t="s">
-        <v>13</v>
-      </c>
+      <c r="G31" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
@@ -7760,23 +7758,23 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>339</v>
+        <v>179</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>340</v>
+        <v>53</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>341</v>
+        <v>54</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -7786,23 +7784,23 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -7812,25 +7810,25 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="F34" s="11"/>
-      <c r="G34" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="45" t="s">
+        <v>12</v>
+      </c>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
@@ -7838,24 +7836,24 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
@@ -7864,24 +7862,24 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>281</v>
+        <v>191</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>282</v>
+        <v>197</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
@@ -7890,24 +7888,24 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="E37" s="44" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
@@ -7916,24 +7914,24 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>191</v>
+        <v>288</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
@@ -7942,24 +7940,24 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>315</v>
+        <v>140</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>316</v>
+        <v>148</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
@@ -7968,24 +7966,24 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>152</v>
+        <v>305</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
@@ -7994,24 +7992,24 @@
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="E41" s="44" t="s">
-        <v>181</v>
+        <v>308</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
@@ -8020,57 +8018,31 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>298</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="D42" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="E42" s="44" t="s">
-        <v>343</v>
-      </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>298</v>
-      </c>
-      <c r="B43" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="C43" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="D43" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>251</v>
-      </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>272</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
